--- a/论文/场景语义地图的构建/文章汇总和对比.xlsx
+++ b/论文/场景语义地图的构建/文章汇总和对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习资料\毕业设计2.0(研究生\图像检测与目标识别\cv_learning\论文\场景语义地图的构建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F7C4B-9648-485E-A94D-6ACA1CCF27F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7076319-4D4B-45B1-816B-F26CDC3A7BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A672F433-20A7-43A9-A10A-9DAA98272B97}"/>
   </bookViews>
@@ -141,17 +141,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +470,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:C19"/>
+      <selection activeCell="A5" sqref="A5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -480,568 +480,555 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="A26:C28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="A5:C7"/>
-    <mergeCell ref="A8:C10"/>
-    <mergeCell ref="G20:L22"/>
+    <mergeCell ref="G29:L31"/>
+    <mergeCell ref="G32:L34"/>
+    <mergeCell ref="D23:F25"/>
+    <mergeCell ref="D26:F28"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="D32:F34"/>
     <mergeCell ref="A29:C31"/>
     <mergeCell ref="A32:C34"/>
     <mergeCell ref="D2:F4"/>
@@ -1058,18 +1045,31 @@
     <mergeCell ref="A20:C22"/>
     <mergeCell ref="A23:C25"/>
     <mergeCell ref="G5:L7"/>
+    <mergeCell ref="A26:C28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="A8:C10"/>
+    <mergeCell ref="G20:L22"/>
     <mergeCell ref="G8:L10"/>
     <mergeCell ref="G11:L13"/>
     <mergeCell ref="G14:L16"/>
     <mergeCell ref="G17:L19"/>
     <mergeCell ref="G23:L25"/>
     <mergeCell ref="G26:L28"/>
-    <mergeCell ref="G29:L31"/>
-    <mergeCell ref="G32:L34"/>
-    <mergeCell ref="D23:F25"/>
-    <mergeCell ref="D26:F28"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="D32:F34"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="M29:M31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
